--- a/data/publication-counts.xlsx
+++ b/data/publication-counts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">We ensured that both “include patents” and “include citations” were unchecked, ie, not selected, for all searches..Additionally, “Any type” was selected, instead of “review articles” for all searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google scholar reports only an approximate number of publications per year. In all searches, we manually recorded these numbers in the other sheet, “counts”.</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,6 +477,11 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
